--- a/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Chris Gayle.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Chris Gayle.xlsx
@@ -439,72 +439,72 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Nov 1 2020</v>
+        <v xml:space="preserve"> Oct 24 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
+        <v>Kings XI won by 12 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Chris Gayle</v>
       </c>
       <c r="G2" t="str">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v>63.15</v>
+        <v>100.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 24 2020</v>
+        <v xml:space="preserve"> Nov 1 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Kings XI won by 12 runs</v>
+        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F3" t="str">
         <v>Chris Gayle</v>
       </c>
       <c r="G3" t="str">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H3" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>100.00</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="4">
